--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2808158.604345973</v>
+        <v>2805614.794838892</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8800809.810492754</v>
+        <v>8800809.810492752</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0.279249514681727</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.86835121197986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>206.6691692928132</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>53.75930726602821</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
+        <v>16.39467431752531</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>259.6326967715747</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>131.1371116149924</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4.334972502203532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>239.7243020844225</v>
+        <v>262.2495876881297</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115232</v>
+        <v>18.47335059661648</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1269,7 +1269,7 @@
         <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>231.024137984898</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>61.17606198760599</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>120.3787038611838</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.3722917337022</v>
       </c>
       <c r="I13" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892481</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>89.43437620021341</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.43549003635358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>131.952790326202</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.77126028643522</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.5045586805106</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>38.76543552489255</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>61.44013021076719</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.25298866282583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4346,34 +4346,34 @@
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243021</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243021</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243021</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243021</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243021</v>
+        <v>166.0479880037678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>141.1068094710482</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>287.8512331313449</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545983</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.046441637462</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>858.046441637462</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>858.046441637462</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W3" t="n">
-        <v>649.2897049780547</v>
+        <v>375.673238946074</v>
       </c>
       <c r="X3" t="n">
-        <v>441.4382047725218</v>
+        <v>375.673238946074</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.6779060075679</v>
+        <v>167.9129401811201</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.8982497058277</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>360.8982497058277</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>360.8982497058277</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>360.8982497058277</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>214.0083022079173</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>214.0083022079173</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4501,37 +4501,37 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165356</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165356</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>581.6908288493578</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="V4" t="n">
-        <v>581.6908288493578</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="W4" t="n">
-        <v>581.6908288493578</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>581.6908288493578</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>360.8982497058277</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>419.733006062639</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>157.4777567984221</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>157.4777567984221</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>157.4777567984221</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.943113009328</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>437.4900837282011</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>305.0283548241683</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4644,22 +4644,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742819</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>819.7034117742819</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.943113009328</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.519540580805</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>448.519540580805</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>298.4029011684693</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>298.4029011684693</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>298.4029011684693</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4726,13 +4726,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4750,25 +4750,25 @@
         <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512189</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>714.897197147983</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>448.519540580805</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>448.519540580805</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>448.519540580805</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.823588302853</v>
+        <v>985.3952443693047</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.861071362441</v>
+        <v>985.3952443693047</v>
       </c>
       <c r="D8" t="n">
-        <v>1056.595372755691</v>
+        <v>627.1295457625542</v>
       </c>
       <c r="E8" t="n">
-        <v>670.8071201574462</v>
+        <v>627.1295457625542</v>
       </c>
       <c r="F8" t="n">
-        <v>663.8616194082427</v>
+        <v>620.1840450133508</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467174</v>
+        <v>187.3702251467164</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607429</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045906</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.3565305502</v>
+        <v>2359.356530550193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342786</v>
+        <v>2351.81067643905</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342786</v>
+        <v>2098.22949796462</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342786</v>
+        <v>2098.22949796462</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342786</v>
+        <v>1745.460842694506</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342786</v>
+        <v>1371.995084433426</v>
       </c>
       <c r="Y8" t="n">
-        <v>2170.423428366974</v>
+        <v>1371.995084433426</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010723</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199453</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.122281858694</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532385</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801235</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763117</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530444795</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963719</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148185</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483001</v>
+        <v>1116.272322425151</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226018</v>
+        <v>1479.338790899452</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695172</v>
+        <v>1866.42319337202</v>
       </c>
       <c r="O9" t="n">
-        <v>1976.511891880011</v>
+        <v>2198.310003359409</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.36884693055</v>
+        <v>2445.345361789033</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251693</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2230.816477685342</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175158</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519829</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.8859175407115</v>
+        <v>220.1474381347625</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9497346128046</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8330952004688</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8330952004688</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025585</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422492</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380165</v>
+        <v>76.63468308380121</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.78784395177</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>1123.669470446412</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.669470446412</v>
+        <v>569.731639397612</v>
       </c>
       <c r="W10" t="n">
-        <v>1061.875468438729</v>
+        <v>569.731639397612</v>
       </c>
       <c r="X10" t="n">
-        <v>833.8859175407115</v>
+        <v>341.7420884995946</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.8859175407115</v>
+        <v>220.1474381347625</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703069</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>376.4492432300642</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>228.5361496476711</v>
       </c>
       <c r="F13" t="n">
-        <v>265.0731740618515</v>
+        <v>228.5361496476711</v>
       </c>
       <c r="G13" t="n">
-        <v>97.87707477673149</v>
+        <v>228.5361496476711</v>
       </c>
       <c r="H13" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>878.3568999154069</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473698</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>915.1035305473698</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>764.9868911350341</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1361.415228493873</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>564.5188827892232</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>416.6057892068301</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>416.6057892068301</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>249.40968992171</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>612.4182386381636</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381636</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594177</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8149,10 +8149,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658821</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475094955</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782322</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.96120870799422</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348497</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112521675</v>
       </c>
       <c r="I13" t="n">
-        <v>77.24602870709352</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.6212754172151</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>77.81244489841443</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.1491633157412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>14.48117232036719</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.01843965608043</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>128.4813855737353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>87.17534280744516</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.57899151911147</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.00765808</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606923</v>
+        <v>507909.2320606945</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101783</v>
+        <v>95270.23779101721</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555022</v>
+        <v>139261.6527555028</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316108.989632288</v>
+        <v>-316108.9896322881</v>
       </c>
       <c r="C6" t="n">
-        <v>363978.990958905</v>
+        <v>363978.9909589052</v>
       </c>
       <c r="D6" t="n">
-        <v>54514.93214877244</v>
+        <v>54514.9321487745</v>
       </c>
       <c r="E6" t="n">
-        <v>46307.09457287386</v>
+        <v>46272.35664743678</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081308</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.588708131</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="J6" t="n">
-        <v>485217.1722144525</v>
+        <v>485182.4342890169</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="L6" t="n">
-        <v>458946.0888425486</v>
+        <v>458911.3509171139</v>
       </c>
       <c r="M6" t="n">
-        <v>421498.3509380977</v>
+        <v>421463.6130126616</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335668</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335665</v>
+        <v>554181.5887081312</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627837</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856965</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933055</v>
+        <v>319.6474457933034</v>
       </c>
       <c r="E3" t="n">
-        <v>434.27304077889</v>
+        <v>434.273040778892</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.8689183636008</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.7767292434211</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>45.02581386810644</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>98.62285206982858</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>269.8639561851522</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>89.60827194583828</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>16.30795394964636</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>247.8026708216245</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>171.824857703827</v>
+        <v>149.2995721001197</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164535993</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164527293</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>225.346936348985</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>98.20594949091097</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29035,13 +29035,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31282,16 +31282,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31300,25 +31300,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31461,19 +31461,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546675</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763194</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354934</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359945</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307898</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140478</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026276</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461717</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366402</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942757</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650341</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,19 +31844,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>677.2750468965965</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>716.7980286000566</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>506.5895320981981</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>121.2219182534623</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34787,10 +34787,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>217.4386117456598</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34869,10 +34869,10 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958074</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705673</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655062</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087218</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091031</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797638</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234312</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127602</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>561.9858418867487</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396987</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856965</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>263.4918737884232</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.458498396198</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873325</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641533</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>259.5635423156792</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>535.1410129745782</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>585.4563165167233</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>368.0351523183239</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
